--- a/table/dictionary.xlsx
+++ b/table/dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asuku\Documents\programing\learning\leetcode\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50A6F844-5807-496C-9AD3-4C423F6C38EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55405411-17D9-47A7-90DE-A065B6DAAC7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{70C3DC35-8C37-4EB7-96F4-D7A86FB7E28E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="66">
   <si>
     <t>Category</t>
   </si>
@@ -50,118 +50,272 @@
     <t>Out</t>
   </si>
   <si>
-    <t>dict={
+    <t>Mustang</t>
+  </si>
+  <si>
+    <t>dict_keys(['brand', 'model', 'year'])</t>
+  </si>
+  <si>
+    <t>show keys</t>
+  </si>
+  <si>
+    <t>dict_keys(['brand', 'model', 'year', 'color'])
+white</t>
+  </si>
+  <si>
+    <t>dict_items([('brand', 'ford'), ('model', 'Mustang'), ('year', 1964), ('color', 'white'),])</t>
+  </si>
+  <si>
+    <t>Membership</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>add a dictionary into another dictionary</t>
+  </si>
+  <si>
+    <t>{'apple': 1, 'orange': 2, 'banana': 3, 'dict': {'peach': 4, 'cherry': 5, 'melon': 6}}</t>
+  </si>
+  <si>
+    <t>show value</t>
+  </si>
+  <si>
+    <t>show all values</t>
+  </si>
+  <si>
+    <t>add keys and values or change value</t>
+  </si>
+  <si>
+    <t>dict_values(['ford', 'Mustang', 1964, 'white'])
+dict_values(['ford', 'Mustang', 1964, 'white', '$200K'])</t>
+  </si>
+  <si>
+    <t>dict_values(['ford', 'Mustang', 1964])</t>
+  </si>
+  <si>
+    <t>Remove</t>
+  </si>
+  <si>
+    <t>{'brand': 'Ford', 'model': 'Mustang'}</t>
+  </si>
+  <si>
+    <t>NameError: name 'dc' is not defined</t>
+  </si>
+  <si>
+    <t>{}</t>
+  </si>
+  <si>
+    <t>brand
+model
+year</t>
+  </si>
+  <si>
+    <t>Ford
+Mustang
+1964</t>
+  </si>
+  <si>
+    <t>for x, y in dct.items():
+  print(x, y)</t>
+  </si>
+  <si>
+    <t>for i in dct.keys():</t>
+  </si>
+  <si>
+    <t>for x in dct.keys():
+  print(x)</t>
+  </si>
+  <si>
+    <t>for x in dct.values():
+  print(x)</t>
+  </si>
+  <si>
+    <t>for i in dct.values():</t>
+  </si>
+  <si>
+    <t>dct =	{
+  "brand": "Ford",
+  "model": "Mustang",
+  "year": 1964
+}
+for x in dct:
+  print(x)</t>
+  </si>
+  <si>
+    <t>for i in dct:</t>
+  </si>
+  <si>
+    <t>dct.clear()</t>
+  </si>
+  <si>
+    <t>del dct</t>
+  </si>
+  <si>
+    <t>dct ={
+  "brand": "Ford",
+  "model": "Mustang",
+  "year": 1964
+}
+del dct
+print(dct)</t>
+  </si>
+  <si>
+    <t>dct = {
+  "brand": "Ford",
+  "model": "Mustang",
+  "year": 1964
+}
+dct.clear()
+print(dct)</t>
+  </si>
+  <si>
+    <t>brand Ford
+model Mustang
+year 1964</t>
+  </si>
+  <si>
+    <t>child1 = {
+  "name" : "Emil",
+  "year" : 2004
+}
+child2 = {
+  "name" : "Tobias",
+  "year" : 2007
+}
+child3 = {
+  "name" : "Linus",
+  "year" : 2011
+}
+myfamily = {
+  "child1" : child1,
+  "child2" : child2,
+  "child3" : child3
+}
+print(myfamily)</t>
+  </si>
+  <si>
+    <t>{'child1': {'name': 'Emil', 'year': 2004}, 'child2': {'name': 'Tobias', 'year': 2007}, 'child3': {'name': 'Linus', 'year': 2011}}</t>
+  </si>
+  <si>
+    <t>print(myfamily["child2"]["name"])</t>
+  </si>
+  <si>
+    <t>Tobias</t>
+  </si>
+  <si>
+    <t>child1 = {
+  "name" : "Emil",
+  "year" : 2004
+} myfamily = {
+  "child1" : child1,
+}</t>
+  </si>
+  <si>
+    <t>dct[child][key]</t>
+  </si>
+  <si>
+    <t>Nested Dictionaries</t>
+  </si>
+  <si>
+    <t>show a spsecific value from Nested Dictionaries</t>
+  </si>
+  <si>
+    <t>dct={
     "brand":"ford",
     "model":"Mustang",
     "year":1964
 }
-x= dict.get("model")
+x= dct.get("model")
 print(x)</t>
   </si>
   <si>
-    <t>Mustang</t>
-  </si>
-  <si>
-    <t>dict.get(key)</t>
-  </si>
-  <si>
-    <t>dict.keys()</t>
-  </si>
-  <si>
-    <t>key = dict.keys()
+    <t>dct.get(key)</t>
+  </si>
+  <si>
+    <t>dct.values()</t>
+  </si>
+  <si>
+    <t>x = dct.values()
+print(x)</t>
+  </si>
+  <si>
+    <t>dct.items()</t>
+  </si>
+  <si>
+    <t>x = dct.items()
+print(x)</t>
+  </si>
+  <si>
+    <t>dct.keys()</t>
+  </si>
+  <si>
+    <t>key = dct.keys()
 print(key)</t>
   </si>
   <si>
-    <t>dict_keys(['brand', 'model', 'year'])</t>
-  </si>
-  <si>
-    <t>show keys</t>
-  </si>
-  <si>
-    <t>dict["color"] = "white"
-print(dict.keys())
-print(dict["color"])</t>
-  </si>
-  <si>
-    <t>dict_keys(['brand', 'model', 'year', 'color'])
-white</t>
-  </si>
-  <si>
-    <t>dict[key] = value</t>
-  </si>
-  <si>
-    <t>dict.items()</t>
-  </si>
-  <si>
-    <t>show keys and values</t>
-  </si>
-  <si>
-    <t>x = dict.items()
-print(x)</t>
-  </si>
-  <si>
-    <t>dict_items([('brand', 'ford'), ('model', 'Mustang'), ('year', 1964), ('color', 'white'),])</t>
-  </si>
-  <si>
-    <t>Membership</t>
-  </si>
-  <si>
-    <t>in</t>
+    <t>dct[key] = value</t>
+  </si>
+  <si>
+    <t>dct["color"] = "white"
+print(dct.keys())
+print(dct["color"])</t>
+  </si>
+  <si>
+    <t>dct.update({key:value})</t>
+  </si>
+  <si>
+    <t>x = dct.values()
+print(x)
+dct.update({"price":"$200K"})
+print(dct.values())</t>
+  </si>
+  <si>
+    <t>dct1 = {"apple":1, "orange":2, "banana":3}
+dct2 = {"peach":4, "cherry":5, "melon":6}
+dct1["dict"] = dct2
+print(dct1)</t>
   </si>
   <si>
     <t>x = "color"
-print(x in dict)</t>
-  </si>
-  <si>
-    <t>mydict1 = {"apple":1, "orange":2, "banana":3}
-mydict2 = {"peach":4, "cherry":5, "melon":6}
-mydict1["dict"] = mydict2
-print(mydict1)</t>
-  </si>
-  <si>
-    <t>add a dictionary into another dictionary</t>
-  </si>
-  <si>
-    <t>{'apple': 1, 'orange': 2, 'banana': 3, 'dict': {'peach': 4, 'cherry': 5, 'melon': 6}}</t>
-  </si>
-  <si>
-    <t>show value</t>
-  </si>
-  <si>
-    <t>show all values</t>
-  </si>
-  <si>
-    <t>dict.values()</t>
-  </si>
-  <si>
-    <t>add keys and values or change value</t>
-  </si>
-  <si>
-    <t>dict.update({key:value})</t>
-  </si>
-  <si>
-    <t>x = dict.values()
-print(x)
-dict.update({"price":"$200K"})
-print(dict.values())</t>
-  </si>
-  <si>
-    <t>dict_values(['ford', 'Mustang', 1964, 'white'])
-dict_values(['ford', 'Mustang', 1964, 'white', '$200K'])</t>
-  </si>
-  <si>
-    <t>x = dict.values()
-print(x)</t>
-  </si>
-  <si>
-    <t>dict_values(['ford', 'Mustang', 1964])</t>
+print(x in dct)</t>
+  </si>
+  <si>
+    <t>dct.popitem()</t>
+  </si>
+  <si>
+    <t>dct= {
+  "brand": "Ford",
+  "model": "Mustang",
+  "year": 1964
+}
+dct.popitem()
+print(dictionary)</t>
+  </si>
+  <si>
+    <t>delete</t>
+  </si>
+  <si>
+    <t>remove all</t>
+  </si>
+  <si>
+    <t>show each key</t>
+  </si>
+  <si>
+    <t>show each value</t>
+  </si>
+  <si>
+    <t>show each item</t>
+  </si>
+  <si>
+    <t>show items</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,6 +331,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF24292E"/>
+      <name val="MesloLGS NF"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -186,7 +345,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -239,11 +398,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -255,6 +442,15 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -571,13 +767,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41D32E84-38CD-4B48-A86C-B5170430A6BE}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.42578125" style="4" customWidth="1"/>
     <col min="2" max="2" width="24" style="4" customWidth="1"/>
@@ -586,7 +782,7 @@
     <col min="5" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="19.5" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -600,119 +796,246 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:4" ht="105">
+      <c r="A2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30">
+      <c r="A3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="45">
+      <c r="A4" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30">
+      <c r="A5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="45">
+      <c r="A6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="75">
+      <c r="A7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="90">
+      <c r="A8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="30">
+      <c r="A9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="105">
+      <c r="A10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="105">
+      <c r="A11" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="105">
+      <c r="A12" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="105">
+      <c r="A13" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="45">
+      <c r="A14" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="45">
+      <c r="A15" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="45">
+      <c r="A16" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="4" t="b">
-        <v>1</v>
+      <c r="C16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="300">
+      <c r="A17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="60">
+      <c r="A18" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>